--- a/data/Subset1_WithDialogActs/Boats and fish 2_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Boats and fish 2_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2137,12 +2137,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2711,12 +2711,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2749,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2901,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2939,12 +2939,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3623,12 +3623,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4269,12 +4269,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
